--- a/docs/Dataset_Description.xlsx
+++ b/docs/Dataset_Description.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79379\Documents\GitHub\Multiclass_prediction_of_obesity_risk\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0574C15-9349-4312-B974-0B5DCB8FA836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AB147-EC39-41E1-98E4-CCE34A5D32B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Столбцы" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Тип</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>male, female</t>
-  </si>
-  <si>
-    <t>[число]</t>
   </si>
   <si>
     <t>Столбец</t>
@@ -178,17 +175,94 @@
   <si>
     <t>вес(кг)</t>
   </si>
+  <si>
+    <t>Заметки</t>
+  </si>
+  <si>
+    <t>Наличие null</t>
+  </si>
+  <si>
+    <t>Наличие nan</t>
+  </si>
+  <si>
+    <t>Наличие нулей</t>
+  </si>
+  <si>
+    <t>Наличие дубликатов</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Связь с TUE(-0.30)</t>
+  </si>
+  <si>
+    <t>Связь с Age(-0.30), Наличие нулей(не пропуск)</t>
+  </si>
+  <si>
+    <t>Связь с Weight(0.46), FAF(0.29),  NCP(0.24), CH20(0.21)</t>
+  </si>
+  <si>
+    <t>Связь с Height(0.46), FCVC(0.22), Age(0.20),  CH20(0.20)</t>
+  </si>
+  <si>
+    <t>Связь с Weight(0.22)</t>
+  </si>
+  <si>
+    <t>Связь с Height(0.24)</t>
+  </si>
+  <si>
+    <t>1.45 - 1.98</t>
+  </si>
+  <si>
+    <t>14 - 61</t>
+  </si>
+  <si>
+    <t>39 - 173</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>0 - 3</t>
+  </si>
+  <si>
+    <t>0 - 2</t>
+  </si>
+  <si>
+    <t>Связь с Height(0.29), CH20(0.17), Наличие нулей(не пропуск)</t>
+  </si>
+  <si>
+    <t>Связь с Height(0.21), Weight(0.21), FAF(0.17)</t>
+  </si>
+  <si>
+    <t>Есть, но не являются пропусками</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,15 +272,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -229,8 +294,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +314,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -371,17 +466,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -422,86 +506,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -509,80 +724,19 @@
           <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -608,44 +762,87 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,14 +857,64 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17690</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF2EDAB-902E-FE88-70BA-F3F09733D551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10323740" y="166007"/>
+          <a:ext cx="7352380" cy="6533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A85B50-076F-45D1-B696-E347CBE405C4}" name="Таблица1" displayName="Таблица1" ref="A1:D18" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="A1:D18" xr:uid="{C2A85B50-076F-45D1-B696-E347CBE405C4}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FBDC696E-0797-4FFA-A780-ADB2B6F1348C}" name="Столбец" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3262C348-5700-4706-A01C-592BA27075E2}" name="Тип" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{46158265-DDEA-45F1-8CD2-B73A3C2918A8}" name="Описание" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{6A278832-6F93-41FC-98B6-76E39A831A28}" name="Значение"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A85B50-076F-45D1-B696-E347CBE405C4}" name="Таблица1" displayName="Таблица1" ref="A1:E18" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:E18" xr:uid="{C2A85B50-076F-45D1-B696-E347CBE405C4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FBDC696E-0797-4FFA-A780-ADB2B6F1348C}" name="Столбец" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3262C348-5700-4706-A01C-592BA27075E2}" name="Тип" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{46158265-DDEA-45F1-8CD2-B73A3C2918A8}" name="Описание" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6A278832-6F93-41FC-98B6-76E39A831A28}" name="Значение" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AE9A0AA9-E5C1-40BB-93E0-A2FA1EA34941}" name="Заметки" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,272 +1216,351 @@
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>40</v>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D18">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="A2:E2 A3:D5 A6:E18">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$B2="object"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$B2="float"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$B2="object"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$B3="object"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$B3="float"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>